--- a/data/instance/20/schedule_17.xlsx
+++ b/data/instance/20/schedule_17.xlsx
@@ -406,18 +406,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.0006944444444444445</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.02638888888888889</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -434,18 +434,18 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.02430555555555556</v>
+        <v>0.0375</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.04583333333333333</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -462,14 +462,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.01944444444444444</v>
+        <v>0.01597222222222222</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.04236111111111111</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -490,18 +490,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.04027777777777778</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.06736111111111111</v>
+        <v>0.05347222222222222</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D31</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -518,18 +518,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.03263888888888889</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -546,14 +546,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.009027777777777777</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.03263888888888889</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -574,14 +574,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.03819444444444445</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>F37</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -602,14 +602,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.03611111111111111</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.05763888888888889</v>
+        <v>0.04236111111111111</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -633,15 +633,15 @@
         <v>0.025</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.05069444444444444</v>
+        <v>0.04652777777777778</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>D44</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -658,18 +658,18 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.002083333333333333</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.02361111111111111</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -686,18 +686,18 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.02847222222222222</v>
+        <v>0.02569444444444444</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>D47</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -714,18 +714,18 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.025</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.05347222222222222</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -742,14 +742,14 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.01736111111111111</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.04930555555555555</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -770,18 +770,18 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.02638888888888889</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.04097222222222222</v>
+        <v>0.04930555555555555</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D47</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -798,18 +798,18 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.01458333333333333</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.03819444444444445</v>
+        <v>0.04722222222222222</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.01180555555555556</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.03263888888888889</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,18 +854,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.05763888888888889</v>
+        <v>0.02430555555555556</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -882,18 +882,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.03125</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F42</t>
+          <t>D35</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -910,18 +910,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.03194444444444444</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.04722222222222222</v>
+        <v>0.05625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D41</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -938,18 +938,18 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.02361111111111111</v>
+        <v>0.01319444444444444</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.04861111111111111</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
